--- a/stichprobe.xlsx
+++ b/stichprobe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirko\PycharmProjects\ss22_dfss_clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4483DAD2-9BCF-485E-AE9A-F41FB2F71E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{82185901-1FE6-4318-B387-AA4385D9292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2430" yWindow="-120" windowWidth="26490" windowHeight="16440" activeTab="1" xr2:uid="{C5D9D903-59D4-4798-9D75-07EE29993AE1}"/>
   </bookViews>
@@ -241,168 +241,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -422,6 +260,186 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -498,204 +516,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -715,6 +535,186 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -734,78 +734,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -825,6 +753,78 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -863,61 +863,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2743,70 +2743,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C10F2775-2B85-4B0D-B416-98D08454A0DC}" name="Tabelle1" displayName="Tabelle1" ref="A1:J14" totalsRowCount="1" headerRowDxfId="35" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C10F2775-2B85-4B0D-B416-98D08454A0DC}" name="Tabelle1" displayName="Tabelle1" ref="A1:J14" totalsRowCount="1" headerRowDxfId="36" dataDxfId="37">
   <autoFilter ref="A1:J13" xr:uid="{C10F2775-2B85-4B0D-B416-98D08454A0DC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="J1:J13"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{39285984-2FD8-41D0-B341-4C397B8E3248}" name="Dateiname" totalsRowLabel="Ergebnis" dataDxfId="43" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{8FD303E2-168D-4B11-9C00-42966CADB051}" name="Tick_no" dataDxfId="42" totalsRowDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{32F98CD8-D31D-4C4E-A9E0-14EA51063638}" name="start" dataDxfId="41" totalsRowDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{AA1049DD-8E34-4EA7-9F63-B89CCD4F85E2}" name="ende" dataDxfId="40" totalsRowDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{632E267A-2AE1-4B4B-84EA-9C1A07BAFBA0}" name="tickdauer" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{39285984-2FD8-41D0-B341-4C397B8E3248}" name="Dateiname" totalsRowLabel="Ergebnis" dataDxfId="43" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{8FD303E2-168D-4B11-9C00-42966CADB051}" name="Tick_no" dataDxfId="42" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{32F98CD8-D31D-4C4E-A9E0-14EA51063638}" name="start" dataDxfId="41" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{AA1049DD-8E34-4EA7-9F63-B89CCD4F85E2}" name="ende" dataDxfId="40" totalsRowDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{632E267A-2AE1-4B4B-84EA-9C1A07BAFBA0}" name="tickdauer" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="21">
       <calculatedColumnFormula>Tabelle1[[#This Row],[ende]]-Tabelle1[[#This Row],[start]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle1[tickdauer])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{205EF7AA-4EF4-43D1-A4EE-643A55BAA9D4}" name="maxFreq" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="19">
+    <tableColumn id="5" xr3:uid="{205EF7AA-4EF4-43D1-A4EE-643A55BAA9D4}" name="maxFreq" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="20">
       <totalsRowFormula>MEDIAN(Tabelle1[maxFreq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{411BDD1A-82B2-4D57-A331-A0256F81A5FC}" name="maxTick" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="18">
+    <tableColumn id="6" xr3:uid="{411BDD1A-82B2-4D57-A331-A0256F81A5FC}" name="maxTick" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>MEDIAN(Tabelle1[maxTick])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FA7BEC0F-86F0-42C8-A746-39F6C138AF97}" name="tickdavor" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="17">
+    <tableColumn id="10" xr3:uid="{FA7BEC0F-86F0-42C8-A746-39F6C138AF97}" name="tickdavor" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="19">
       <calculatedColumnFormula>Tabelle1[[#This Row],[maxTick]]-Tabelle1[[#This Row],[start]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle1[tickdavor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5D020258-C33C-41F5-B6B2-128C2305FD67}" name="tickdanach" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="16">
+    <tableColumn id="9" xr3:uid="{5D020258-C33C-41F5-B6B2-128C2305FD67}" name="tickdanach" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="18">
       <calculatedColumnFormula>Tabelle1[[#This Row],[ende]]-Tabelle1[[#This Row],[maxTick]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle1[tickdanach])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{45219063-34B4-436F-81D9-18BCF712D174}" name="wandern" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{45219063-34B4-436F-81D9-18BCF712D174}" name="wandern" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42179411-9102-4DEC-9B91-41F038287E02}" name="Tabelle13" displayName="Tabelle13" ref="A18:J31" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42179411-9102-4DEC-9B91-41F038287E02}" name="Tabelle13" displayName="Tabelle13" ref="A18:J31" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A18:J30" xr:uid="{42179411-9102-4DEC-9B91-41F038287E02}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:J30">
     <sortCondition ref="J18:J30"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{59607093-3D33-42AD-9ACA-1BAD5B375A8E}" name="Dateiname" totalsRowLabel="Ergebnis" dataDxfId="29" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F4606A3A-67B5-4D1A-AD4C-1B1633566BFD}" name="Tick_no" dataDxfId="28" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{277B9CD6-D47E-46A7-B118-B03F1CF05DA4}" name="start" dataDxfId="27" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{D877A7C0-0E7E-48C5-B927-C1CEF617E015}" name="ende" dataDxfId="26" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{6CA664A7-0D1C-4842-9E26-F239DDA29442}" name="tickdauer" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{59607093-3D33-42AD-9ACA-1BAD5B375A8E}" name="Dateiname" totalsRowLabel="Ergebnis" dataDxfId="30" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F4606A3A-67B5-4D1A-AD4C-1B1633566BFD}" name="Tick_no" dataDxfId="29" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{277B9CD6-D47E-46A7-B118-B03F1CF05DA4}" name="start" dataDxfId="28" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D877A7C0-0E7E-48C5-B927-C1CEF617E015}" name="ende" dataDxfId="27" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{6CA664A7-0D1C-4842-9E26-F239DDA29442}" name="tickdauer" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="7">
       <calculatedColumnFormula>Tabelle13[[#This Row],[ende]]-Tabelle13[[#This Row],[start]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle13[tickdauer])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{44E49D17-6E33-4584-9BF2-A17105F96107}" name="maxFreq" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{44E49D17-6E33-4584-9BF2-A17105F96107}" name="maxFreq" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="6">
       <totalsRowFormula>MEDIAN(Tabelle13[maxFreq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{85D82B92-7304-4855-9B99-64FFE997F9A9}" name="maxTick" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
+    <tableColumn id="6" xr3:uid="{85D82B92-7304-4855-9B99-64FFE997F9A9}" name="maxTick" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="5">
       <totalsRowFormula>MEDIAN(Tabelle13[maxTick])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{31026F88-3570-4813-8D8C-44CAD4430972}" name="tickdavor" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{31026F88-3570-4813-8D8C-44CAD4430972}" name="tickdavor" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabelle13[[#This Row],[maxTick]]-Tabelle13[[#This Row],[start]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle13[tickdavor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{06CDEE68-7236-4F51-8B17-B0C7808648D3}" name="tickdanach" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1">
+    <tableColumn id="9" xr3:uid="{06CDEE68-7236-4F51-8B17-B0C7808648D3}" name="tickdanach" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
       <calculatedColumnFormula>Tabelle13[[#This Row],[ende]]-Tabelle13[[#This Row],[maxTick]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle13[tickdanach])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F00F479D-A7E0-42F4-A593-5F3281AE2EFD}" name="wandern" totalsRowFunction="count" dataDxfId="25" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{F00F479D-A7E0-42F4-A593-5F3281AE2EFD}" name="wandern" totalsRowFunction="count" dataDxfId="26" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3203,13 +3203,15 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>

--- a/stichprobe.xlsx
+++ b/stichprobe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirko\PycharmProjects\ss22_dfss_clock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirko\PycharmProjects\ss22_dfss_clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{82185901-1FE6-4318-B387-AA4385D9292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1424F560-D0EF-4EB1-AB85-4D2BE95483C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="-120" windowWidth="26490" windowHeight="16440" activeTab="1" xr2:uid="{C5D9D903-59D4-4798-9D75-07EE29993AE1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="1" xr2:uid="{C5D9D903-59D4-4798-9D75-07EE29993AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>Dateiname</t>
   </si>
@@ -102,18 +102,6 @@
   </si>
   <si>
     <t>20220510_09_28_19</t>
-  </si>
-  <si>
-    <t>Summe</t>
-  </si>
-  <si>
-    <t>Mittelwert</t>
-  </si>
-  <si>
-    <t>Laufende Summe</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
   </si>
   <si>
     <t>Spaltenbeschriftungen</t>
@@ -241,6 +229,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -278,168 +302,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -459,6 +321,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -478,6 +358,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -497,6 +395,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -516,6 +432,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -553,168 +487,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -734,6 +506,168 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -771,60 +705,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -844,6 +724,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -863,6 +761,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -900,42 +816,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -955,6 +835,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -974,7 +872,97 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1385,6 +1373,7 @@
         <c:axId val="698524687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2261,15 +2250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>723899</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2656,7 +2645,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5BE1728-5A29-440E-92D3-BCAEA5738DE6}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5BE1728-5A29-440E-92D3-BCAEA5738DE6}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -2743,70 +2732,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C10F2775-2B85-4B0D-B416-98D08454A0DC}" name="Tabelle1" displayName="Tabelle1" ref="A1:J14" totalsRowCount="1" headerRowDxfId="36" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C10F2775-2B85-4B0D-B416-98D08454A0DC}" name="Tabelle1" displayName="Tabelle1" ref="A1:J14" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:J13" xr:uid="{C10F2775-2B85-4B0D-B416-98D08454A0DC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
     <sortCondition ref="J1:J13"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{39285984-2FD8-41D0-B341-4C397B8E3248}" name="Dateiname" totalsRowLabel="Ergebnis" dataDxfId="43" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{8FD303E2-168D-4B11-9C00-42966CADB051}" name="Tick_no" dataDxfId="42" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{32F98CD8-D31D-4C4E-A9E0-14EA51063638}" name="start" dataDxfId="41" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{AA1049DD-8E34-4EA7-9F63-B89CCD4F85E2}" name="ende" dataDxfId="40" totalsRowDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{632E267A-2AE1-4B4B-84EA-9C1A07BAFBA0}" name="tickdauer" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="21">
+    <tableColumn id="1" xr3:uid="{39285984-2FD8-41D0-B341-4C397B8E3248}" name="Dateiname" totalsRowLabel="Ergebnis" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{8FD303E2-168D-4B11-9C00-42966CADB051}" name="Tick_no" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{32F98CD8-D31D-4C4E-A9E0-14EA51063638}" name="start" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{AA1049DD-8E34-4EA7-9F63-B89CCD4F85E2}" name="ende" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{632E267A-2AE1-4B4B-84EA-9C1A07BAFBA0}" name="tickdauer" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>Tabelle1[[#This Row],[ende]]-Tabelle1[[#This Row],[start]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle1[tickdauer])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{205EF7AA-4EF4-43D1-A4EE-643A55BAA9D4}" name="maxFreq" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="20">
+    <tableColumn id="5" xr3:uid="{205EF7AA-4EF4-43D1-A4EE-643A55BAA9D4}" name="maxFreq" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>MEDIAN(Tabelle1[maxFreq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{411BDD1A-82B2-4D57-A331-A0256F81A5FC}" name="maxTick" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{411BDD1A-82B2-4D57-A331-A0256F81A5FC}" name="maxTick" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>MEDIAN(Tabelle1[maxTick])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FA7BEC0F-86F0-42C8-A746-39F6C138AF97}" name="tickdavor" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="19">
+    <tableColumn id="10" xr3:uid="{FA7BEC0F-86F0-42C8-A746-39F6C138AF97}" name="tickdavor" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>Tabelle1[[#This Row],[maxTick]]-Tabelle1[[#This Row],[start]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle1[tickdavor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5D020258-C33C-41F5-B6B2-128C2305FD67}" name="tickdanach" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="18">
+    <tableColumn id="9" xr3:uid="{5D020258-C33C-41F5-B6B2-128C2305FD67}" name="tickdanach" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>Tabelle1[[#This Row],[ende]]-Tabelle1[[#This Row],[maxTick]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle1[tickdanach])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{45219063-34B4-436F-81D9-18BCF712D174}" name="wandern" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{45219063-34B4-436F-81D9-18BCF712D174}" name="wandern" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42179411-9102-4DEC-9B91-41F038287E02}" name="Tabelle13" displayName="Tabelle13" ref="A18:J31" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42179411-9102-4DEC-9B91-41F038287E02}" name="Tabelle13" displayName="Tabelle13" ref="A18:J31" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A18:J30" xr:uid="{42179411-9102-4DEC-9B91-41F038287E02}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:J30">
     <sortCondition ref="J18:J30"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{59607093-3D33-42AD-9ACA-1BAD5B375A8E}" name="Dateiname" totalsRowLabel="Ergebnis" dataDxfId="30" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{F4606A3A-67B5-4D1A-AD4C-1B1633566BFD}" name="Tick_no" dataDxfId="29" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{277B9CD6-D47E-46A7-B118-B03F1CF05DA4}" name="start" dataDxfId="28" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D877A7C0-0E7E-48C5-B927-C1CEF617E015}" name="ende" dataDxfId="27" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{6CA664A7-0D1C-4842-9E26-F239DDA29442}" name="tickdauer" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{59607093-3D33-42AD-9ACA-1BAD5B375A8E}" name="Dateiname" totalsRowLabel="Ergebnis" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F4606A3A-67B5-4D1A-AD4C-1B1633566BFD}" name="Tick_no" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{277B9CD6-D47E-46A7-B118-B03F1CF05DA4}" name="start" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D877A7C0-0E7E-48C5-B927-C1CEF617E015}" name="ende" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{6CA664A7-0D1C-4842-9E26-F239DDA29442}" name="tickdauer" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Tabelle13[[#This Row],[ende]]-Tabelle13[[#This Row],[start]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle13[tickdauer])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{44E49D17-6E33-4584-9BF2-A17105F96107}" name="maxFreq" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="6">
+    <tableColumn id="5" xr3:uid="{44E49D17-6E33-4584-9BF2-A17105F96107}" name="maxFreq" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>MEDIAN(Tabelle13[maxFreq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{85D82B92-7304-4855-9B99-64FFE997F9A9}" name="maxTick" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="5">
+    <tableColumn id="6" xr3:uid="{85D82B92-7304-4855-9B99-64FFE997F9A9}" name="maxTick" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>MEDIAN(Tabelle13[maxTick])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{31026F88-3570-4813-8D8C-44CAD4430972}" name="tickdavor" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="4">
+    <tableColumn id="10" xr3:uid="{31026F88-3570-4813-8D8C-44CAD4430972}" name="tickdavor" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabelle13[[#This Row],[maxTick]]-Tabelle13[[#This Row],[start]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle13[tickdavor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{06CDEE68-7236-4F51-8B17-B0C7808648D3}" name="tickdanach" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{06CDEE68-7236-4F51-8B17-B0C7808648D3}" name="tickdanach" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabelle13[[#This Row],[ende]]-Tabelle13[[#This Row],[maxTick]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabelle13[tickdanach])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F00F479D-A7E0-42F4-A593-5F3281AE2EFD}" name="wandern" totalsRowFunction="count" dataDxfId="26" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{F00F479D-A7E0-42F4-A593-5F3281AE2EFD}" name="wandern" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3115,31 +3104,31 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3148,10 +3137,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -3165,7 +3154,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -3179,9 +3168,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7">
         <v>544</v>
@@ -3202,21 +3191,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31AAF9C-D7CA-4C74-911B-5D4231326351}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6.1328125" customWidth="1"/>
+    <col min="4" max="4" width="4.73046875" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="12.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -3239,16 +3228,16 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3283,7 +3272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3318,7 +3307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3353,7 +3342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3388,7 +3377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3423,7 +3412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3458,7 +3447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3493,7 +3482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3528,7 +3517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -3563,7 +3552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3598,7 +3587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -3633,7 +3622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3668,9 +3657,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3700,7 +3689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
@@ -3712,7 +3701,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -3724,7 +3713,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
@@ -3736,7 +3725,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3750,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
@@ -3759,16 +3748,16 @@
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -3803,7 +3792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -3838,7 +3827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -3873,7 +3862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -3908,7 +3897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3943,7 +3932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3978,7 +3967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -4013,7 +4002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -4048,7 +4037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -4083,7 +4072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -4118,7 +4107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -4153,7 +4142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -4188,9 +4177,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
